--- a/VirutalOperatingSystem/Graph Data.csv.xlsx
+++ b/VirutalOperatingSystem/Graph Data.csv.xlsx
@@ -9,18 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Total Time" sheetId="2" r:id="rId1"/>
-    <sheet name="Average Wait" sheetId="3" r:id="rId2"/>
-    <sheet name="Graph Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Graph Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'Graph Data'!$A$2:$A$55</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Graph Data'!$E$2:$E$55</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Graph Data'!$E$2:$E$55</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -763,6 +757,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -770,389 +824,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Total Time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Graph Data'!$A$2:$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>4-16-1-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4-16-1-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4-16-1-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-16-2-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4-16-2-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4-16-2-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4-16-4-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4-16-4-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4-16-4-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4-32-1-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4-32-1-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4-32-1-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4-32-2-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4-32-2-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4-32-2-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4-32-4-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4-32-4-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4-32-4-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8-16-1-1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8-16-1-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8-16-1-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8-16-2-1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8-16-2-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8-16-2-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8-16-4-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8-16-4-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8-16-4-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8-32-1-1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8-32-1-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8-32-1-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8-32-2-1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8-32-2-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8-32-2-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8-32-4-1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8-32-4-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8-32-4-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16-16-1-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16-16-1-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16-16-1-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16-16-2-1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16-16-2-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16-16-2-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16-16-4-1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16-16-4-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16-16-4-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16-32-1-1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16-32-1-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16-32-1-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16-32-2-1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16-32-2-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16-32-2-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16-32-4-1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>16-32-4-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>16-32-4-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Graph Data'!$E$2:$E$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>30799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30577</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29268</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29179</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30162</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30085</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30315</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15204</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15187</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15070</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15080</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15158</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15087</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30124</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15229</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15062</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15048</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15155</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15073</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15072</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>30128</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30295</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30326</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15039</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15083</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15214</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8224</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8110</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8124</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30334</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30175</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15064</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15109</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8064</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8043</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8049</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30434</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30126</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30353</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15036</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15104</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>15095</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8199</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8114</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8139</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2E7-4870-A497-995348120CE8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Total Wait</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1163,33 +836,353 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graph Data'!$A$2:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>4-16-1-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-16-1-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-16-1-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-16-2-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4-16-2-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4-16-2-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4-16-4-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4-16-4-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4-16-4-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4-32-1-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4-32-1-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4-32-1-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4-32-2-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4-32-2-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4-32-2-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4-32-4-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4-32-4-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4-32-4-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8-16-1-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8-16-1-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8-16-1-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8-16-2-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8-16-2-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8-16-2-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8-16-4-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8-16-4-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8-16-4-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8-32-1-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8-32-1-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8-32-1-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8-32-2-1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8-32-2-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8-32-2-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8-32-4-1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8-32-4-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8-32-4-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16-16-1-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16-16-1-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16-16-1-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16-16-2-1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16-16-2-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16-16-2-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16-16-4-1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16-16-4-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16-16-4-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16-32-1-1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16-32-1-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16-32-1-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16-32-2-1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16-32-2-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16-32-2-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16-32-4-1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16-32-4-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16-32-4-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Graph Data'!$B$2:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>30799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30315</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15070</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15062</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15048</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15073</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15072</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30128</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15083</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15214</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8224</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8110</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8124</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30205</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30175</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15064</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15109</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15185</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8049</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30434</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15036</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15104</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15095</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8199</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8114</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2E7-4870-A497-995348120CE8}"/>
+              <c16:uniqueId val="{00000000-EB04-4476-9D96-881F17B9AFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1201,18 +1194,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="386196064"/>
-        <c:axId val="386197048"/>
+        <c:axId val="487904064"/>
+        <c:axId val="487904392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="386196064"/>
+        <c:axId val="487904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of pages-pagesize-number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> cpus-sorting method</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1250,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386197048"/>
+        <c:crossAx val="487904392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1258,11 +1329,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386197048"/>
+        <c:axId val="487904392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="32500"/>
-          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1280,8 +1349,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Elapsed (microseconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1311,629 +1440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386196064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5000"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Average Wait</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Graph Data'!$A$2:$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>4-16-1-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4-16-1-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4-16-1-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-16-2-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4-16-2-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4-16-2-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4-16-4-1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4-16-4-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4-16-4-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4-32-1-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4-32-1-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4-32-1-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4-32-2-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4-32-2-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4-32-2-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4-32-4-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4-32-4-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4-32-4-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8-16-1-1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8-16-1-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8-16-1-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8-16-2-1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8-16-2-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8-16-2-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8-16-4-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8-16-4-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8-16-4-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8-32-1-1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8-32-1-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8-32-1-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8-32-2-1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8-32-2-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8-32-2-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8-32-4-1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8-32-4-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8-32-4-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16-16-1-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16-16-1-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16-16-1-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16-16-2-1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16-16-2-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16-16-2-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16-16-4-1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16-16-4-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16-16-4-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16-32-1-1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16-32-1-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16-32-1-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16-32-2-1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16-32-2-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16-32-2-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16-32-4-1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>16-32-4-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>16-32-4-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Graph Data'!$F$2:$F$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>156191623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>156222332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>156252686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>156282459</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>156311721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156340924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>156370199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>156399392</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>156428553</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>156456291</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>156486413</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>156516621</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>156541220</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>156556433</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156571634</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>156586364</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>156601497</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>156616647</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>156637812</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>156667932</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>156698151</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>156722691</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>156737844</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>156752927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>156767633</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>156782756</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>156797886</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>156815618</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>156845809</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>156876171</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>156902392</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>156917493</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>156932642</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>156945882</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>156954046</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>156962196</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>156976449</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>157006739</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>157036959</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>157063054</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>157078118</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>157093294</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>157106453</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>157114547</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>157122606</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>157131541</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>157161942</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>157192166</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>157220804</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>157235864</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>157251015</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>157265403</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>157273537</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>157281659</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D3C-4C02-8580-A129AB79228D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="383113632"/>
-        <c:axId val="383116256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="383113632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="383116256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="383116256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="157300000"/>
-          <c:min val="156100000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="383113632"/>
+        <c:crossAx val="487904064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,7 +1453,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,46 +1516,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2604,525 +2071,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3133,34 +2086,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8638953" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3482,18 +2408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3519,594 +2438,594 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="B2">
         <v>30799</v>
       </c>
-      <c r="F2">
-        <v>156191623</v>
+      <c r="C2">
+        <v>-156191623</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="B3">
         <v>30577</v>
       </c>
-      <c r="F3">
-        <v>156222332</v>
+      <c r="C3">
+        <v>-156222332</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="B4">
         <v>30201</v>
       </c>
-      <c r="F4">
-        <v>156252686</v>
+      <c r="C4">
+        <v>-156252686</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="B5">
         <v>29268</v>
       </c>
-      <c r="F5">
-        <v>156282459</v>
+      <c r="C5">
+        <v>-156282459</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="B6">
         <v>29271</v>
       </c>
-      <c r="F6">
-        <v>156311721</v>
+      <c r="C6">
+        <v>-156311721</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="B7">
         <v>29128</v>
       </c>
-      <c r="F7">
-        <v>156340924</v>
+      <c r="C7">
+        <v>-156340924</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="B8">
         <v>29288</v>
       </c>
-      <c r="F8">
-        <v>156370199</v>
+      <c r="C8">
+        <v>-156370199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="B9">
         <v>29179</v>
       </c>
-      <c r="F9">
-        <v>156399392</v>
+      <c r="C9">
+        <v>-156399392</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="B10">
         <v>29104</v>
       </c>
-      <c r="F10">
-        <v>156428553</v>
+      <c r="C10">
+        <v>-156428553</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="B11">
         <v>30162</v>
       </c>
-      <c r="F11">
-        <v>156456291</v>
+      <c r="C11">
+        <v>-156456291</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="B12">
         <v>30085</v>
       </c>
-      <c r="F12">
-        <v>156486413</v>
+      <c r="C12">
+        <v>-156486413</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
+      <c r="B13">
         <v>30315</v>
       </c>
-      <c r="F13">
-        <v>156516621</v>
+      <c r="C13">
+        <v>-156516621</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="B14">
         <v>15204</v>
       </c>
-      <c r="F14">
-        <v>156541220</v>
+      <c r="C14">
+        <v>-156541220</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="B15">
         <v>15187</v>
       </c>
-      <c r="F15">
-        <v>156556433</v>
+      <c r="C15">
+        <v>-156556433</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="B16">
         <v>15070</v>
       </c>
-      <c r="F16">
-        <v>156571634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>-156571634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="E17">
+      <c r="B17">
         <v>15080</v>
       </c>
-      <c r="F17">
-        <v>156586364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>-156586364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="B18">
         <v>15158</v>
       </c>
-      <c r="F18">
-        <v>156601497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>-156601497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
+      <c r="B19">
         <v>15087</v>
       </c>
-      <c r="F19">
-        <v>156616647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>-156616647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="E20">
+      <c r="B20">
         <v>30130</v>
       </c>
-      <c r="F20">
-        <v>156637812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>-156637812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="B21">
         <v>30124</v>
       </c>
-      <c r="F21">
-        <v>156667932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>-156667932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="E22">
+      <c r="B22">
         <v>30125</v>
       </c>
-      <c r="F22">
-        <v>156698151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>-156698151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="E23">
+      <c r="B23">
         <v>15229</v>
       </c>
-      <c r="F23">
-        <v>156722691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>-156722691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="E24">
+      <c r="B24">
         <v>15062</v>
       </c>
-      <c r="F24">
-        <v>156737844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>-156737844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="E25">
+      <c r="B25">
         <v>15048</v>
       </c>
-      <c r="F25">
-        <v>156752927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>-156752927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="B26">
         <v>15155</v>
       </c>
-      <c r="F26">
-        <v>156767633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>-156767633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="E27">
+      <c r="B27">
         <v>15073</v>
       </c>
-      <c r="F27">
-        <v>156782756</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>-156782756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="E28">
+      <c r="B28">
         <v>15072</v>
       </c>
-      <c r="F28">
-        <v>156797886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>-156797886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="E29">
+      <c r="B29">
         <v>30128</v>
       </c>
-      <c r="F29">
-        <v>156815618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>-156815618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="E30">
+      <c r="B30">
         <v>30295</v>
       </c>
-      <c r="F30">
-        <v>156845809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>-156845809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="E31">
+      <c r="B31">
         <v>30326</v>
       </c>
-      <c r="F31">
-        <v>156876171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>-156876171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="E32">
+      <c r="B32">
         <v>15039</v>
       </c>
-      <c r="F32">
-        <v>156902392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>-156902392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
+      <c r="B33">
         <v>15083</v>
       </c>
-      <c r="F33">
-        <v>156917493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>-156917493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="E34">
+      <c r="B34">
         <v>15214</v>
       </c>
-      <c r="F34">
-        <v>156932642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>-156932642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="E35">
+      <c r="B35">
         <v>8224</v>
       </c>
-      <c r="F35">
-        <v>156945882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>-156945882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="E36">
+      <c r="B36">
         <v>8110</v>
       </c>
-      <c r="F36">
-        <v>156954046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>-156954046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="E37">
+      <c r="B37">
         <v>8124</v>
       </c>
-      <c r="F37">
-        <v>156962196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>-156962196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="E38">
+      <c r="B38">
         <v>30334</v>
       </c>
-      <c r="F38">
-        <v>156976449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>-156976449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="E39">
+      <c r="B39">
         <v>30205</v>
       </c>
-      <c r="F39">
-        <v>157006739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>-157006739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="E40">
+      <c r="B40">
         <v>30175</v>
       </c>
-      <c r="F40">
-        <v>157036959</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>-157036959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="E41">
+      <c r="B41">
         <v>15064</v>
       </c>
-      <c r="F41">
-        <v>157063054</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>-157063054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="E42">
+      <c r="B42">
         <v>15109</v>
       </c>
-      <c r="F42">
-        <v>157078118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>-157078118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="E43">
+      <c r="B43">
         <v>15185</v>
       </c>
-      <c r="F43">
-        <v>157093294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>-157093294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="E44">
+      <c r="B44">
         <v>8064</v>
       </c>
-      <c r="F44">
-        <v>157106453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>-157106453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="E45">
+      <c r="B45">
         <v>8043</v>
       </c>
-      <c r="F45">
-        <v>157114547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>-157114547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="E46">
+      <c r="B46">
         <v>8049</v>
       </c>
-      <c r="F46">
-        <v>157122606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>-157122606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="E47">
+      <c r="B47">
         <v>30434</v>
       </c>
-      <c r="F47">
-        <v>157131541</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>-157131541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="E48">
+      <c r="B48">
         <v>30126</v>
       </c>
-      <c r="F48">
-        <v>157161942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>-157161942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="E49">
+      <c r="B49">
         <v>30353</v>
       </c>
-      <c r="F49">
-        <v>157192166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>-157192166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="E50">
+      <c r="B50">
         <v>15036</v>
       </c>
-      <c r="F50">
-        <v>157220804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>-157220804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="E51">
+      <c r="B51">
         <v>15104</v>
       </c>
-      <c r="F51">
-        <v>157235864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>-157235864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="E52">
+      <c r="B52">
         <v>15095</v>
       </c>
-      <c r="F52">
-        <v>157251015</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>-157251015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="E53">
+      <c r="B53">
         <v>8199</v>
       </c>
-      <c r="F53">
-        <v>157265403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>-157265403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="E54">
+      <c r="B54">
         <v>8114</v>
       </c>
-      <c r="F54">
-        <v>157273537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>-157273537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="E55">
+      <c r="B55">
         <v>8139</v>
       </c>
-      <c r="F55">
-        <v>157281659</v>
+      <c r="C55">
+        <v>-157281659</v>
       </c>
     </row>
   </sheetData>

--- a/VirutalOperatingSystem/Graph Data.csv.xlsx
+++ b/VirutalOperatingSystem/Graph Data.csv.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Total Time" sheetId="2" r:id="rId1"/>
+    <sheet name="Average Waiting Time" sheetId="2" r:id="rId1"/>
     <sheet name="Graph Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -778,13 +778,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
+              <a:t>Average Waiting Time</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> time</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1010,171 +1005,171 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graph Data'!$B$2:$B$55</c:f>
+              <c:f>'Graph Data'!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>30799</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30577</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30201</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29268</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29271</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29288</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29104</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30162</c:v>
+                  <c:v>1948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30085</c:v>
+                  <c:v>1968</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30315</c:v>
+                  <c:v>1953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15204</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15187</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15070</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15080</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15158</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15087</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30130</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30124</c:v>
+                  <c:v>1946</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30125</c:v>
+                  <c:v>1977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15229</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15062</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15048</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15155</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15073</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15072</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30128</c:v>
+                  <c:v>5413</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30295</c:v>
+                  <c:v>5447</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30326</c:v>
+                  <c:v>5383</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15039</c:v>
+                  <c:v>1881</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15083</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15214</c:v>
+                  <c:v>1882</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8224</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8110</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8124</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30334</c:v>
+                  <c:v>5364</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30205</c:v>
+                  <c:v>5407</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30175</c:v>
+                  <c:v>5383</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15064</c:v>
+                  <c:v>1891</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15109</c:v>
+                  <c:v>1876</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15185</c:v>
+                  <c:v>1873</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8064</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8043</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8049</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30434</c:v>
+                  <c:v>10709</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30126</c:v>
+                  <c:v>10704</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30353</c:v>
+                  <c:v>10638</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15036</c:v>
+                  <c:v>4763</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15104</c:v>
+                  <c:v>4759</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15095</c:v>
+                  <c:v>4677</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8199</c:v>
+                  <c:v>1770</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8114</c:v>
+                  <c:v>1778</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8139</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +1177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB04-4476-9D96-881F17B9AFCE}"/>
+              <c16:uniqueId val="{00000000-E520-4BCF-8387-01BB955BFA60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1209,11 +1204,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="487904064"/>
-        <c:axId val="487904392"/>
+        <c:axId val="446331672"/>
+        <c:axId val="446332328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="487904064"/>
+        <c:axId val="446331672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,18 +1235,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of pages-pagesize-number of</a:t>
+                  <a:t>Number of Pages - Page Size - Number of CPUS - Sorting Method</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> cpus-sorting method</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1321,7 +1306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487904392"/>
+        <c:crossAx val="446332328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487904392"/>
+        <c:axId val="446332328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,13 +1355,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time Spent on Queue</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Elapsed (microseconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1440,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487904064"/>
+        <c:crossAx val="446331672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2075,7 +2055,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2086,7 +2066,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8638953" cy="6282070"/>
+    <xdr:ext cx="8662276" cy="6279931"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2409,10 +2389,15 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A55 C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2439,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30799</v>
+        <v>30464</v>
       </c>
       <c r="C2">
-        <v>-156191623</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,10 +2435,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30577</v>
+        <v>32288</v>
       </c>
       <c r="C3">
-        <v>-156222332</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2461,10 +2446,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30201</v>
+        <v>30350</v>
       </c>
       <c r="C4">
-        <v>-156252686</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,10 +2457,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>29268</v>
+        <v>29409</v>
       </c>
       <c r="C5">
-        <v>-156282459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>29271</v>
+        <v>29175</v>
       </c>
       <c r="C6">
-        <v>-156311721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2494,10 +2479,10 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>29128</v>
+        <v>29272</v>
       </c>
       <c r="C7">
-        <v>-156340924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2505,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>29288</v>
+        <v>29214</v>
       </c>
       <c r="C8">
-        <v>-156370199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,10 +2501,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>29179</v>
+        <v>29259</v>
       </c>
       <c r="C9">
-        <v>-156399392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2527,10 +2512,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>29104</v>
+        <v>29356</v>
       </c>
       <c r="C10">
-        <v>-156428553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2538,10 +2523,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>30162</v>
+        <v>30241</v>
       </c>
       <c r="C11">
-        <v>-156456291</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2549,10 +2534,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>30085</v>
+        <v>30565</v>
       </c>
       <c r="C12">
-        <v>-156486413</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,10 +2545,10 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>30315</v>
+        <v>30357</v>
       </c>
       <c r="C13">
-        <v>-156516621</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2571,10 +2556,10 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>15204</v>
+        <v>15304</v>
       </c>
       <c r="C14">
-        <v>-156541220</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,10 +2567,10 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>15187</v>
+        <v>15282</v>
       </c>
       <c r="C15">
-        <v>-156556433</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2593,10 +2578,10 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15070</v>
+        <v>15143</v>
       </c>
       <c r="C16">
-        <v>-156571634</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2604,10 +2589,10 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>15080</v>
+        <v>15138</v>
       </c>
       <c r="C17">
-        <v>-156586364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2615,10 +2600,10 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>15158</v>
+        <v>15210</v>
       </c>
       <c r="C18">
-        <v>-156601497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2626,10 +2611,10 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>15087</v>
+        <v>15214</v>
       </c>
       <c r="C19">
-        <v>-156616647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2637,10 +2622,10 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>30130</v>
+        <v>30524</v>
       </c>
       <c r="C20">
-        <v>-156637812</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2648,10 +2633,10 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>30124</v>
+        <v>30224</v>
       </c>
       <c r="C21">
-        <v>-156667932</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2659,10 +2644,10 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>30125</v>
+        <v>30709</v>
       </c>
       <c r="C22">
-        <v>-156698151</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2670,10 +2655,10 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>15229</v>
+        <v>15196</v>
       </c>
       <c r="C23">
-        <v>-156722691</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2681,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>15062</v>
+        <v>15137</v>
       </c>
       <c r="C24">
-        <v>-156737844</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2692,10 +2677,10 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>15048</v>
+        <v>15147</v>
       </c>
       <c r="C25">
-        <v>-156752927</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2703,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>15155</v>
+        <v>15072</v>
       </c>
       <c r="C26">
-        <v>-156767633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2714,10 +2699,10 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>15073</v>
+        <v>15122</v>
       </c>
       <c r="C27">
-        <v>-156782756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2725,10 +2710,10 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>15072</v>
+        <v>15164</v>
       </c>
       <c r="C28">
-        <v>-156797886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2736,10 +2721,10 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>30128</v>
+        <v>30446</v>
       </c>
       <c r="C29">
-        <v>-156815618</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2747,10 +2732,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>30295</v>
+        <v>30600</v>
       </c>
       <c r="C30">
-        <v>-156845809</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2758,10 +2743,10 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>30326</v>
+        <v>30279</v>
       </c>
       <c r="C31">
-        <v>-156876171</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2769,10 +2754,10 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>15039</v>
+        <v>15138</v>
       </c>
       <c r="C32">
-        <v>-156902392</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2780,10 +2765,10 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>15083</v>
+        <v>15127</v>
       </c>
       <c r="C33">
-        <v>-156917493</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2791,10 +2776,10 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>15214</v>
+        <v>15135</v>
       </c>
       <c r="C34">
-        <v>-156932642</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2802,10 +2787,10 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>8224</v>
+        <v>8184</v>
       </c>
       <c r="C35">
-        <v>-156945882</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2813,10 +2798,10 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>8110</v>
+        <v>8147</v>
       </c>
       <c r="C36">
-        <v>-156954046</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2824,10 +2809,10 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>8124</v>
+        <v>8128</v>
       </c>
       <c r="C37">
-        <v>-156962196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2835,10 +2820,10 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>30334</v>
+        <v>30251</v>
       </c>
       <c r="C38">
-        <v>-156976449</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2846,10 +2831,10 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>30205</v>
+        <v>30465</v>
       </c>
       <c r="C39">
-        <v>-157006739</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2857,10 +2842,10 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>30175</v>
+        <v>30296</v>
       </c>
       <c r="C40">
-        <v>-157036959</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2868,10 +2853,10 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>15064</v>
+        <v>15195</v>
       </c>
       <c r="C41">
-        <v>-157063054</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2879,10 +2864,10 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>15109</v>
+        <v>15130</v>
       </c>
       <c r="C42">
-        <v>-157078118</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2890,10 +2875,10 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>15185</v>
+        <v>15071</v>
       </c>
       <c r="C43">
-        <v>-157093294</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2901,10 +2886,10 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>8064</v>
+        <v>8060</v>
       </c>
       <c r="C44">
-        <v>-157106453</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2912,10 +2897,10 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>8043</v>
+        <v>8063</v>
       </c>
       <c r="C45">
-        <v>-157114547</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2923,10 +2908,10 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>8049</v>
+        <v>8071</v>
       </c>
       <c r="C46">
-        <v>-157122606</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2934,10 +2919,10 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>30434</v>
+        <v>30536</v>
       </c>
       <c r="C47">
-        <v>-157131541</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2945,10 +2930,10 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>30126</v>
+        <v>30530</v>
       </c>
       <c r="C48">
-        <v>-157161942</v>
+        <v>10704</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2956,10 +2941,10 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>30353</v>
+        <v>30299</v>
       </c>
       <c r="C49">
-        <v>-157192166</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2967,10 +2952,10 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>15036</v>
+        <v>15343</v>
       </c>
       <c r="C50">
-        <v>-157220804</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,10 +2963,10 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>15104</v>
+        <v>15335</v>
       </c>
       <c r="C51">
-        <v>-157235864</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,10 +2974,10 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>15095</v>
+        <v>15071</v>
       </c>
       <c r="C52">
-        <v>-157251015</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3000,10 +2985,10 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>8199</v>
+        <v>8190</v>
       </c>
       <c r="C53">
-        <v>-157265403</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3011,10 +2996,10 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>8114</v>
+        <v>8208</v>
       </c>
       <c r="C54">
-        <v>-157273537</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -3022,10 +3007,10 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>8139</v>
+        <v>8136</v>
       </c>
       <c r="C55">
-        <v>-157281659</v>
+        <v>1760</v>
       </c>
     </row>
   </sheetData>

--- a/VirutalOperatingSystem/Graph Data.csv.xlsx
+++ b/VirutalOperatingSystem/Graph Data.csv.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Average Waiting Time" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Graph Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -764,7 +764,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -778,7 +778,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Waiting Time</a:t>
+              <a:t>Total Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,7 +796,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -822,7 +822,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -831,7 +831,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1005,171 +1018,171 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graph Data'!$C$2:$C$55</c:f>
+              <c:f>'Graph Data'!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>30464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>32288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>30350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>29409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>29175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>29272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>29214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>29356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1948</c:v>
+                  <c:v>30241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1968</c:v>
+                  <c:v>30565</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1953</c:v>
+                  <c:v>30357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69</c:v>
+                  <c:v>15304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67</c:v>
+                  <c:v>15282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67</c:v>
+                  <c:v>15143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>15138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>15210</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>15214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1966</c:v>
+                  <c:v>30524</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1946</c:v>
+                  <c:v>30224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1977</c:v>
+                  <c:v>30709</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67</c:v>
+                  <c:v>15196</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68</c:v>
+                  <c:v>15137</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68</c:v>
+                  <c:v>15147</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>15072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>15122</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>15164</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5413</c:v>
+                  <c:v>30446</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5447</c:v>
+                  <c:v>30600</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5383</c:v>
+                  <c:v>30279</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1881</c:v>
+                  <c:v>15138</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1877</c:v>
+                  <c:v>15127</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1882</c:v>
+                  <c:v>15135</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>135</c:v>
+                  <c:v>8184</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>145</c:v>
+                  <c:v>8147</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>135</c:v>
+                  <c:v>8128</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5364</c:v>
+                  <c:v>30251</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5407</c:v>
+                  <c:v>30465</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5383</c:v>
+                  <c:v>30296</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1891</c:v>
+                  <c:v>15195</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1876</c:v>
+                  <c:v>15130</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1873</c:v>
+                  <c:v>15071</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>134</c:v>
+                  <c:v>8060</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>134</c:v>
+                  <c:v>8063</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>134</c:v>
+                  <c:v>8071</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10709</c:v>
+                  <c:v>30536</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10704</c:v>
+                  <c:v>30530</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10638</c:v>
+                  <c:v>30299</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4763</c:v>
+                  <c:v>15343</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4759</c:v>
+                  <c:v>15335</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4677</c:v>
+                  <c:v>15071</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1770</c:v>
+                  <c:v>8190</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1778</c:v>
+                  <c:v>8208</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1760</c:v>
+                  <c:v>8136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +1190,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E520-4BCF-8387-01BB955BFA60}"/>
+              <c16:uniqueId val="{00000000-0585-4F20-AE67-E971CEAEBF13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1191,29 +1204,43 @@
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="385078016"/>
+        <c:axId val="385079000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385078016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="446331672"/>
-        <c:axId val="446332328"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="446331672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1221,7 +1248,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1235,7 +1262,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Pages - Page Size - Number of CPUS - Sorting Method</a:t>
+                  <a:t>Number of Pages - Page Size - Number of CPUs - Sorting Method Used</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1253,7 +1280,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1291,7 +1318,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1306,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446332328"/>
+        <c:crossAx val="385079000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,26 +1341,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446332328"/>
+        <c:axId val="385079000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1341,7 +1354,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1355,7 +1368,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time Spent on Queue</a:t>
+                  <a:t>Elapsed Time (Microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1373,7 +1386,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1390,13 +1403,19 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1420,7 +1439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446331672"/>
+        <c:crossAx val="385078016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,7 +1452,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,7 +1488,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1492,6 +1511,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1536,7 +1556,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1547,7 +1567,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1570,18 +1590,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1593,7 +1613,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1601,11 +1621,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1637,12 +1657,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1652,12 +1672,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1669,13 +1689,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1687,12 +1707,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1702,18 +1722,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1735,15 +1756,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1758,15 +1777,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1777,17 +1796,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1796,10 +1814,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1815,21 +1833,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1848,17 +1860,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1867,17 +1878,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1886,17 +1896,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1917,7 +1926,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1925,7 +1934,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1938,6 +1947,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1945,10 +1965,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1969,7 +1989,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1978,14 +1998,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1999,7 +2019,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2015,8 +2035,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2032,6 +2052,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2039,14 +2070,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2055,7 +2080,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2087,6 +2112,96 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76456</cdr:x>
+      <cdr:y>0.69508</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78736</cdr:x>
+      <cdr:y>0.79994</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="6622815" y="4365037"/>
+          <a:ext cx="197555" cy="658519"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52215</cdr:x>
+      <cdr:y>0.79844</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.84787</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4523016" y="5014149"/>
+          <a:ext cx="4139260" cy="310444"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Best Scenario - 16 Pages, page size 16, 4 cpus. First Come</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> First Serve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2389,15 +2504,10 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="A2:A55 C2:C55"/>
+      <selection activeCell="A2" sqref="A2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/VirutalOperatingSystem/Graph Data.csv.xlsx
+++ b/VirutalOperatingSystem/Graph Data.csv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -778,7 +778,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Time</a:t>
+              <a:t>Average Waiting Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -816,7 +816,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1018,171 +1018,171 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graph Data'!$B$2:$B$55</c:f>
+              <c:f>'Graph Data'!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>30464</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32288</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30350</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29409</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29175</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29272</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29356</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30241</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30565</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30357</c:v>
+                  <c:v>1948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15304</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15282</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15143</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15138</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15210</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15214</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30524</c:v>
+                  <c:v>1964</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30224</c:v>
+                  <c:v>1956</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30709</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15196</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15137</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15147</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15072</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15122</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15164</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30446</c:v>
+                  <c:v>5365</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30600</c:v>
+                  <c:v>5448</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30279</c:v>
+                  <c:v>5392</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15138</c:v>
+                  <c:v>1880</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15127</c:v>
+                  <c:v>1906</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15135</c:v>
+                  <c:v>1916</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8184</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8147</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8128</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30251</c:v>
+                  <c:v>5346</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30465</c:v>
+                  <c:v>5353</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30296</c:v>
+                  <c:v>5375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15195</c:v>
+                  <c:v>1881</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15130</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15071</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8060</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8063</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8071</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30536</c:v>
+                  <c:v>10554</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30530</c:v>
+                  <c:v>10728</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30299</c:v>
+                  <c:v>10659</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15343</c:v>
+                  <c:v>4698</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15335</c:v>
+                  <c:v>4749</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15071</c:v>
+                  <c:v>4677</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8190</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8208</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8136</c:v>
+                  <c:v>1765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1190,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0585-4F20-AE67-E971CEAEBF13}"/>
+              <c16:uniqueId val="{00000000-8C2E-4253-A1BA-6610D03A892B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1202,26 +1202,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="385078016"/>
-        <c:axId val="385079000"/>
+        <c:axId val="388088688"/>
+        <c:axId val="388090984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="385078016"/>
+        <c:axId val="388088688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385079000"/>
+        <c:crossAx val="388090984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1341,12 +1328,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385079000"/>
+        <c:axId val="388090984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1439,9 +1440,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385078016"/>
+        <c:crossAx val="388088688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1483,7 +1485,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1511,7 +1513,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2091,7 +2092,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:ext cx="8654815" cy="6274741"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2112,96 +2113,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76456</cdr:x>
-      <cdr:y>0.69508</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.78736</cdr:x>
-      <cdr:y>0.79994</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="6622815" y="4365037"/>
-          <a:ext cx="197555" cy="658519"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.52215</cdr:x>
-      <cdr:y>0.79844</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.84787</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="TextBox 5"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4523016" y="5014149"/>
-          <a:ext cx="4139260" cy="310444"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Best Scenario - 16 Pages, page size 16, 4 cpus. First Come</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> First Serve</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2504,7 +2415,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B55"/>
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A55 C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2534,7 +2445,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30464</v>
+        <v>3057</v>
       </c>
       <c r="C2">
         <v>34</v>
@@ -2545,10 +2456,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>32288</v>
+        <v>3101</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2556,10 +2467,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30350</v>
+        <v>3045</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2567,10 +2478,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>29409</v>
+        <v>2955</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2578,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>29175</v>
+        <v>2913</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2589,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>29272</v>
+        <v>2925</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2600,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>29214</v>
+        <v>2945</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2611,7 +2522,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>29259</v>
+        <v>2916</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2622,7 +2533,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>29356</v>
+        <v>2930</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2633,10 +2544,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>30241</v>
+        <v>3058</v>
       </c>
       <c r="C11">
-        <v>1948</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2644,10 +2555,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>30565</v>
+        <v>3049</v>
       </c>
       <c r="C12">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2655,10 +2566,10 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>30357</v>
+        <v>3025</v>
       </c>
       <c r="C13">
-        <v>1953</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,10 +2577,10 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>15304</v>
+        <v>1521</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2677,7 +2588,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>15282</v>
+        <v>1540</v>
       </c>
       <c r="C15">
         <v>67</v>
@@ -2688,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>15143</v>
+        <v>1518</v>
       </c>
       <c r="C16">
         <v>67</v>
@@ -2699,7 +2610,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>15138</v>
+        <v>1513</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2710,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>15210</v>
+        <v>1513</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2721,7 +2632,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>15214</v>
+        <v>1510</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2732,10 +2643,10 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>30524</v>
+        <v>3051</v>
       </c>
       <c r="C20">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2743,10 +2654,10 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>30224</v>
+        <v>3038</v>
       </c>
       <c r="C21">
-        <v>1946</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2754,10 +2665,10 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>30709</v>
+        <v>3037</v>
       </c>
       <c r="C22">
-        <v>1977</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2765,7 +2676,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>15196</v>
+        <v>1512</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -2776,10 +2687,10 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>15137</v>
+        <v>1517</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2787,7 +2698,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>15147</v>
+        <v>1526</v>
       </c>
       <c r="C25">
         <v>68</v>
@@ -2798,7 +2709,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>15072</v>
+        <v>1515</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2809,7 +2720,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>15122</v>
+        <v>1509</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2820,7 +2731,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>15164</v>
+        <v>1512</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2831,10 +2742,10 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>30446</v>
+        <v>3024</v>
       </c>
       <c r="C29">
-        <v>5413</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2842,10 +2753,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>30600</v>
+        <v>3060</v>
       </c>
       <c r="C30">
-        <v>5447</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,10 +2764,10 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>30279</v>
+        <v>3040</v>
       </c>
       <c r="C31">
-        <v>5383</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2864,10 +2775,10 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>15138</v>
+        <v>1516</v>
       </c>
       <c r="C32">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2875,10 +2786,10 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>15127</v>
+        <v>1532</v>
       </c>
       <c r="C33">
-        <v>1877</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2886,10 +2797,10 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>15135</v>
+        <v>1536</v>
       </c>
       <c r="C34">
-        <v>1882</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2897,10 +2808,10 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>8184</v>
+        <v>814</v>
       </c>
       <c r="C35">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2908,10 +2819,10 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>8147</v>
+        <v>813</v>
       </c>
       <c r="C36">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2919,10 +2830,10 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>8128</v>
+        <v>822</v>
       </c>
       <c r="C37">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2930,10 +2841,10 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>30251</v>
+        <v>3009</v>
       </c>
       <c r="C38">
-        <v>5364</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2941,10 +2852,10 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>30465</v>
+        <v>3013</v>
       </c>
       <c r="C39">
-        <v>5407</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2952,10 +2863,10 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>30296</v>
+        <v>3032</v>
       </c>
       <c r="C40">
-        <v>5383</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2963,10 +2874,10 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>15195</v>
+        <v>1513</v>
       </c>
       <c r="C41">
-        <v>1891</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2974,10 +2885,10 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>15130</v>
+        <v>1525</v>
       </c>
       <c r="C42">
-        <v>1876</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,10 +2896,10 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>15071</v>
+        <v>1522</v>
       </c>
       <c r="C43">
-        <v>1873</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2996,10 +2907,10 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>8060</v>
+        <v>824</v>
       </c>
       <c r="C44">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3007,7 +2918,7 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>8063</v>
+        <v>812</v>
       </c>
       <c r="C45">
         <v>134</v>
@@ -3018,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>8071</v>
+        <v>813</v>
       </c>
       <c r="C46">
         <v>134</v>
@@ -3029,10 +2940,10 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>30536</v>
+        <v>3010</v>
       </c>
       <c r="C47">
-        <v>10709</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,10 +2951,10 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>30530</v>
+        <v>3056</v>
       </c>
       <c r="C48">
-        <v>10704</v>
+        <v>10728</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3051,10 +2962,10 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>30299</v>
+        <v>3043</v>
       </c>
       <c r="C49">
-        <v>10638</v>
+        <v>10659</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,10 +2973,10 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>15343</v>
+        <v>1510</v>
       </c>
       <c r="C50">
-        <v>4763</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,10 +2984,10 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>15335</v>
+        <v>1527</v>
       </c>
       <c r="C51">
-        <v>4759</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3084,7 +2995,7 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>15071</v>
+        <v>1509</v>
       </c>
       <c r="C52">
         <v>4677</v>
@@ -3095,10 +3006,10 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>8190</v>
+        <v>814</v>
       </c>
       <c r="C53">
-        <v>1770</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3106,10 +3017,10 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>8208</v>
+        <v>823</v>
       </c>
       <c r="C54">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,10 +3028,10 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>8136</v>
+        <v>815</v>
       </c>
       <c r="C55">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
